--- a/Practice/Offset Examples.xlsx
+++ b/Practice/Offset Examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddhiradadiya/Documents/GitHub/Tops-DA/Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{472000B0-6A0B-AC46-B850-09FB569D4B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8042E8E8-0B26-1741-8B44-31DC82FD5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,7 +1104,7 @@
   <dimension ref="A2:O1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="19">
-        <f t="shared" ref="F13:F14" ca="1" si="1">OFFSET(I7,0,1)</f>
+        <f t="shared" ref="F14" ca="1" si="1">OFFSET(I7,0,1)</f>
         <v>200</v>
       </c>
       <c r="G14" s="2"/>
